--- a/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>16,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,99</t>
+          <t>2,04; 23,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,3</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,15</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,18</t>
+          <t>0,0; 52,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,87</t>
+          <t>7,37; 35,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,86</t>
+          <t>0,0; 19,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,65</t>
+          <t>0,0; 27,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,63</t>
+          <t>4,23; 34,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,67</t>
+          <t>6,51; 23,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,85</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,45</t>
+          <t>0,0; 12,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,14</t>
+          <t>6,71; 34,14</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 9,08</t>
+          <t>5,0; 10,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,0</t>
+          <t>5,24; 11,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,95</t>
+          <t>4,37; 10,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,55</t>
+          <t>6,43; 13,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,35</t>
+          <t>3,55; 8,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,78</t>
+          <t>1,64; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,78</t>
+          <t>3,34; 8,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,02</t>
+          <t>5,02; 11,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,84</t>
+          <t>4,86; 8,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,25</t>
+          <t>4,07; 7,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,47</t>
+          <t>4,5; 8,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,44</t>
+          <t>6,38; 11,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,93</t>
+          <t>3,62; 9,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>2,78; 8,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>1,49; 7,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,14</t>
+          <t>3,06; 10,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 35,03</t>
+          <t>2,35; 8,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,12</t>
+          <t>2,32; 7,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>1,77; 6,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 34,3</t>
+          <t>1,69; 7,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,97</t>
+          <t>3,57; 7,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,49</t>
+          <t>3,25; 7,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,78</t>
+          <t>2,17; 5,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 34,14</t>
+          <t>3,01; 7,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>5,99%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,53%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,96</t>
+          <t>3,54; 9,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,33</t>
+          <t>3,57; 9,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,02</t>
+          <t>2,08; 6,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 10,15</t>
+          <t>4,72; 12,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,0</t>
+          <t>3,2; 8,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,95</t>
+          <t>2,55; 7,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,88</t>
+          <t>2,58; 7,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,11</t>
+          <t>1,72; 7,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,85</t>
+          <t>3,88; 7,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,2</t>
+          <t>3,63; 7,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,55</t>
+          <t>2,88; 6,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,63</t>
+          <t>3,98; 8,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,93</t>
+          <t>2,04; 23,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 35,03</t>
+          <t>6,78; 35,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,12</t>
+          <t>0,0; 19,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>0,0; 27,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,97</t>
+          <t>6,25; 25,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,49</t>
+          <t>0,0; 9,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,78</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 13,29</t>
+          <t>5,35; 13,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,68</t>
+          <t>2,66; 9,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 12,02</t>
+          <t>3,79; 12,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 15,33</t>
+          <t>4,29; 15,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,07</t>
+          <t>3,6; 10,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,87</t>
+          <t>3,91; 12,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,56</t>
+          <t>0,58; 5,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,64</t>
+          <t>3,53; 10,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,99</t>
+          <t>5,33; 10,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,82</t>
+          <t>4,25; 9,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,85</t>
+          <t>2,88; 7,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,42</t>
+          <t>4,75; 11,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,99</t>
+          <t>5,26; 11,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 11,3</t>
+          <t>5,45; 11,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 10,15</t>
+          <t>4,55; 10,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,18</t>
+          <t>6,3; 13,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,87</t>
+          <t>3,5; 8,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,86</t>
+          <t>1,61; 5,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,65</t>
+          <t>3,42; 8,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 11,63</t>
+          <t>4,84; 11,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,86; 8,67</t>
+          <t>4,92; 8,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,85</t>
+          <t>4,15; 7,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,45</t>
+          <t>4,66; 8,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,14</t>
+          <t>6,43; 11,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,96</t>
+          <t>3,43; 9,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,33</t>
+          <t>2,75; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,02</t>
+          <t>1,45; 6,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,06; 10,15</t>
+          <t>3,12; 9,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,0</t>
+          <t>2,51; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,95</t>
+          <t>2,45; 8,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,88</t>
+          <t>1,55; 6,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,11</t>
+          <t>1,63; 7,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,85</t>
+          <t>3,58; 7,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,2</t>
+          <t>3,31; 7,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,55</t>
+          <t>2,06; 5,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,63</t>
+          <t>2,95; 7,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 9,08</t>
+          <t>3,33; 9,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,0</t>
+          <t>3,53; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,95</t>
+          <t>2,16; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 12,55</t>
+          <t>5,0; 12,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,35</t>
+          <t>3,0; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,78</t>
+          <t>2,56; 7,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,78</t>
+          <t>2,77; 8,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,02</t>
+          <t>1,74; 7,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,84</t>
+          <t>3,86; 7,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,25</t>
+          <t>3,5; 7,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,47</t>
+          <t>2,96; 6,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,44</t>
+          <t>4,02; 8,79</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,44</t>
+          <t>5,48; 8,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,7</t>
+          <t>4,9; 7,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,7</t>
+          <t>3,9; 6,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,23</t>
+          <t>6,42; 10,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,46</t>
+          <t>4,59; 7,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,18</t>
+          <t>3,45; 6,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,08</t>
+          <t>3,43; 5,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,4</t>
+          <t>4,27; 7,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,61</t>
+          <t>5,37; 7,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,52</t>
+          <t>4,51; 6,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,92</t>
+          <t>3,98; 5,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,3</t>
+          <t>5,94; 8,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,29</t>
+          <t>2,05; 22,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,54 +739,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,14</t>
+          <t>0,0; 53,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 35,81</t>
+          <t>6,43; 35,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,88</t>
+          <t>0,0; 20,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,09</t>
+          <t>0,0; 27,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 34,3</t>
+          <t>5,09; 39,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 25,09</t>
+          <t>5,88; 24,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,52</t>
+          <t>0,0; 8,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,58</t>
+          <t>0,0; 14,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 34,14</t>
+          <t>6,21; 34,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,31</t>
+          <t>5,32; 13,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,56</t>
+          <t>2,72; 9,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,38</t>
+          <t>3,69; 11,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 15,7</t>
+          <t>4,43; 15,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,97</t>
+          <t>3,84; 10,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 12,85</t>
+          <t>4,38; 13,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,5</t>
+          <t>0,67; 6,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,9</t>
+          <t>3,4; 11,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,6</t>
+          <t>5,29; 11,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,83</t>
+          <t>4,35; 9,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,76</t>
+          <t>2,74; 7,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,56</t>
+          <t>4,82; 11,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,29</t>
+          <t>4,77; 10,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,36</t>
+          <t>5,46; 11,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,35</t>
+          <t>4,59; 10,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 13,02</t>
+          <t>6,24; 13,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,58</t>
+          <t>3,6; 8,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,85</t>
+          <t>1,63; 5,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,49</t>
+          <t>3,36; 8,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,69</t>
+          <t>4,88; 11,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,56</t>
+          <t>4,8; 8,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,71</t>
+          <t>4,14; 7,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,39</t>
+          <t>4,55; 8,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 11,13</t>
+          <t>6,36; 11,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,89</t>
+          <t>3,33; 9,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,16</t>
+          <t>2,87; 8,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,9</t>
+          <t>1,54; 6,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,91</t>
+          <t>3,16; 9,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,01</t>
+          <t>2,48; 8,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,03</t>
+          <t>2,33; 7,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 6,74</t>
+          <t>1,66; 6,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,22</t>
+          <t>1,51; 7,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,62</t>
+          <t>3,66; 7,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,11</t>
+          <t>3,18; 6,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,47</t>
+          <t>2,31; 5,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,23</t>
+          <t>3,03; 7,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,04</t>
+          <t>3,44; 9,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,43</t>
+          <t>3,45; 9,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,02</t>
+          <t>2,16; 6,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 12,41</t>
+          <t>5,1; 12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,85</t>
+          <t>3,47; 9,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,59</t>
+          <t>2,53; 7,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,07</t>
+          <t>2,79; 8,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,59</t>
+          <t>1,77; 7,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,85</t>
+          <t>3,96; 7,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,39</t>
+          <t>3,53; 7,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 6,53</t>
+          <t>2,9; 6,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,79</t>
+          <t>4,03; 8,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,43</t>
+          <t>5,36; 8,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,8</t>
+          <t>4,71; 7,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,74</t>
+          <t>3,98; 6,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,32</t>
+          <t>6,56; 10,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,52</t>
+          <t>4,59; 7,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,08</t>
+          <t>3,48; 6,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,98</t>
+          <t>3,3; 5,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,39</t>
+          <t>4,34; 7,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,57</t>
+          <t>5,36; 7,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,47</t>
+          <t>4,42; 6,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 5,99</t>
+          <t>3,93; 5,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,51</t>
+          <t>5,94; 8,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1003-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 22,4</t>
+          <t>5,17; 13,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>3,99; 11,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>1,32; 8,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,31</t>
+          <t>4,7; 12,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,43; 35,59</t>
+          <t>5,79; 13,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>2,24; 7,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,48</t>
+          <t>3,16; 9,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 39,25</t>
+          <t>4,62; 15,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 24,49</t>
+          <t>6,47; 11,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,49</t>
+          <t>3,78; 8,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,87</t>
+          <t>2,88; 7,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 34,01</t>
+          <t>5,68; 12,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,41</t>
+          <t>3,55; 8,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,34</t>
+          <t>1,64; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,97</t>
+          <t>3,34; 8,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,48</t>
+          <t>4,97; 11,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,93</t>
+          <t>5,0; 10,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,65</t>
+          <t>5,24; 11,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,14</t>
+          <t>4,37; 10,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,71</t>
+          <t>6,51; 13,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,02</t>
+          <t>4,86; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 9,61</t>
+          <t>4,07; 7,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,45</t>
+          <t>4,5; 8,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 11,56</t>
+          <t>6,43; 11,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>4,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,95</t>
+          <t>2,35; 8,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,48</t>
+          <t>2,32; 7,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,2</t>
+          <t>1,77; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 13,12</t>
+          <t>1,38; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,65</t>
+          <t>3,62; 9,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,77</t>
+          <t>2,78; 8,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,57</t>
+          <t>1,49; 7,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,73</t>
+          <t>3,0; 10,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,75</t>
+          <t>3,57; 7,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,87</t>
+          <t>3,25; 7,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,56</t>
+          <t>2,17; 5,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 11,26</t>
+          <t>2,7; 7,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,78</t>
+          <t>3,2; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,18</t>
+          <t>2,55; 7,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,64</t>
+          <t>2,58; 7,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 9,88</t>
+          <t>1,73; 6,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,08</t>
+          <t>3,54; 9,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,48</t>
+          <t>3,57; 9,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,82</t>
+          <t>2,08; 6,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,01</t>
+          <t>4,89; 13,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,9</t>
+          <t>3,88; 7,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,88</t>
+          <t>3,63; 7,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,7</t>
+          <t>2,88; 6,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,6</t>
+          <t>4,1; 8,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>5,42%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,2</t>
+          <t>4,59; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 9,17</t>
+          <t>3,45; 6,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,68</t>
+          <t>3,29; 6,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,45</t>
+          <t>4,14; 7,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,08</t>
+          <t>5,43; 8,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,68</t>
+          <t>4,81; 7,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,09</t>
+          <t>3,92; 6,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,17</t>
+          <t>6,45; 10,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,64</t>
+          <t>5,46; 7,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,37</t>
+          <t>4,48; 6,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,33</t>
+          <t>4,01; 5,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,3</t>
+          <t>5,66; 8,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,45%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 8,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,71; 7,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 6,7</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 10,22</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 7,54</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 6,17</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 5,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 7,29</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 7,51</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 6,42</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>3,93; 5,88</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 8,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
